--- a/ATSAMD21E16/ATSAMD21E16_grad.xlsx
+++ b/ATSAMD21E16/ATSAMD21E16_grad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\microczp_notatki\zlecenie\ATSAMD21E16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC492C-C043-4A97-95BD-2AB77C7352E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72A685F-015F-4F39-8A3A-6D54AB2FA3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>ATSAMD21E16 to nowy energooszczędny i wysokowydajny mikrokontroler z rodziny ARM Cortex-M0+, który został zoptymalizowany pod kątem aplikacji sterujących, tj. automatyka domowa, zastosowania konsumenckie, pomiarowe oraz przemysłowe. Mikrokontroler charakteryzuje duża ilość pamięci Flash (64KB) i SRAM (8KB), wysoka częstotliwość pracy do 48MHz, możliwość komunikacji przez sprzętowe interfejsy UART/USART, SPI lub I2C, napięcie zasilania od 1,62V do 3,63V oraz wspieranie przez Atmel Studio, Advanced Software Frameworks (ASF) od Microchip i uniwersalny zestaw uruchomieniowy STK600. ATSAMD21E16 jest ponadto wspierany przez platformę programistyczną do tworzenia oprogramowania MPLAB Harmony v3, która znacząco upraszcza opracowywanie i rozwijanie projektu a co więcej redukuje czas do wprowadzenia produktu na rynek. 
-ATSAMD21E16 wspiera standard Functional Safety (FuSa) zgodny z  ISO 26262 (ASIL B), IEC 61508 (SIL 2) and  IEC 60730 (Class B).
-Cortex-M0+ opiera się na dobrze znanym i bardzo udanym procesorze Cortex-M0, zachowując jego pełen zestaw instrukcji i kompatybilność, jednocześnie zmniejszając zużycie energii i zwiększając wydajność. Zaawansowane tryby uśpienia procesora (kiedy to wszystkie inne funkcje mogą być nadal uruchomione) i wybudzenia procesora (w oparciu o predefiniowane warunki np. przekroczenie ustalonego progu) umożliwiają konstruowanie wysoce energooszczędnych urządzeń.
-Nowy mikrokontroler firmy Microchip posiada bardzo bogatą i konfigurowalną sekcję peryferiów, które powodują wysoką uniwersalność zastosowań, od prostych urządzeń po rozbudowane implementacje. Nowością w tym układzie jest system do obsługi dotykowych, pojemnościowych przycisków, suwaków i interfejsów użytkownika sterowanych kółkiem.</t>
-  </si>
-  <si>
     <t>SAMD21</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>Rodzina uC</t>
+  </si>
+  <si>
+    <t>ATSAMD21E16 to nowy energooszczędny i wysokowydajny mikrokontroler z rodziny ARM Cortex-M0+, który został zoptymalizowany pod kątem aplikacji sterujących, tj. automatyka domowa, zastosowania konsumenckie, pomiarowe oraz przemysłowe. Mikrokontroler charakteryzuje duża ilość pamięci Flash (64KB) i SRAM (8KB), wysoka częstotliwość pracy do 48MHz, możliwość komunikacji przez sprzętowe interfejsy UART/USART, SPI lub I2C, napięcie zasilania od 1,62V do 3,63V oraz wspieranie przez Atmel Studio, Advanced Software Frameworks (ASF) od Microchip i uniwersalny zestaw uruchomieniowy STK600. ATSAMD21E16 jest ponadto wspierany przez platformę programistyczną do tworzenia oprogramowania MPLAB Harmony v3, która znacząco upraszcza opracowywanie i rozwijanie projektu a co więcej redukuje czas do wprowadzenia produktu na rynek. 
+ATSAMD21E16 wspiera standard Functional Safety (FuSa) zgodny z  ISO 26262 (ASIL B), IEC 61508 (SIL 2) i IEC 60730 (Class B).
+Cortex-M0+ opiera się na dobrze znanym i bardzo udanym procesorze Cortex-M0, zachowując jego pełen zestaw instrukcji i kompatybilność, jednocześnie zmniejszając zużycie energii i zwiększając wydajność. Zaawansowane tryby uśpienia procesora (kiedy to wszystkie inne funkcje mogą być nadal uruchomione) i wybudzenia procesora (w oparciu o predefiniowane warunki np. przekroczenie ustalonego progu) umożliwiają konstruowanie wysoce energooszczędnych urządzeń.
+Nowy mikrokontroler firmy Microchip posiada bardzo bogatą i konfigurowalną sekcję peryferiów, które powodują wysoką uniwersalność zastosowań, od prostych urządzeń po rozbudowane implementacje. Nowością w tym układzie jest system do obsługi dotykowych, pojemnościowych przycisków, suwaków i interfejsów użytkownika sterowanych kółkiem.</t>
   </si>
 </sst>
 </file>
@@ -287,29 +287,29 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -613,225 +613,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="238.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>26</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
